--- a/natmiOut/OldD0/LR-pairs_lrc2p/Ptprm-Ptprm.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Ptprm-Ptprm.xlsx
@@ -525,52 +525,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.612252818057</v>
+        <v>39.15652966666666</v>
       </c>
       <c r="H2">
-        <v>10.612252818057</v>
+        <v>117.469589</v>
       </c>
       <c r="I2">
-        <v>0.3515505603108813</v>
+        <v>0.665717606307092</v>
       </c>
       <c r="J2">
-        <v>0.3515505603108813</v>
+        <v>0.665717606307092</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.612252818057</v>
+        <v>39.15652966666666</v>
       </c>
       <c r="N2">
-        <v>10.612252818057</v>
+        <v>117.469589</v>
       </c>
       <c r="O2">
-        <v>0.3515505603108813</v>
+        <v>0.665717606307092</v>
       </c>
       <c r="P2">
-        <v>0.3515505603108813</v>
+        <v>0.665717606307092</v>
       </c>
       <c r="Q2">
-        <v>112.6199098743587</v>
+        <v>1533.233815536547</v>
       </c>
       <c r="R2">
-        <v>112.6199098743587</v>
+        <v>13799.10433982892</v>
       </c>
       <c r="S2">
-        <v>0.1235877964548946</v>
+        <v>0.4431799313472443</v>
       </c>
       <c r="T2">
-        <v>0.1235877964548946</v>
+        <v>0.4431799313472443</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,52 +587,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.612252818057</v>
+        <v>39.15652966666666</v>
       </c>
       <c r="H3">
-        <v>10.612252818057</v>
+        <v>117.469589</v>
       </c>
       <c r="I3">
-        <v>0.3515505603108813</v>
+        <v>0.665717606307092</v>
       </c>
       <c r="J3">
-        <v>0.3515505603108813</v>
+        <v>0.665717606307092</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.9636875441025</v>
+        <v>14.98097966666666</v>
       </c>
       <c r="N3">
-        <v>14.9636875441025</v>
+        <v>44.942939</v>
       </c>
       <c r="O3">
-        <v>0.4956999075158987</v>
+        <v>0.254698309802426</v>
       </c>
       <c r="P3">
-        <v>0.4956999075158987</v>
+        <v>0.254698309802426</v>
       </c>
       <c r="Q3">
-        <v>158.7984353084262</v>
+        <v>586.6031747535633</v>
       </c>
       <c r="R3">
-        <v>158.7984353084262</v>
+        <v>5279.42857278207</v>
       </c>
       <c r="S3">
-        <v>0.1742635802332662</v>
+        <v>0.1695571491321332</v>
       </c>
       <c r="T3">
-        <v>0.1742635802332662</v>
+        <v>0.1695571491321332</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,52 +649,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.612252818057</v>
+        <v>39.15652966666666</v>
       </c>
       <c r="H4">
-        <v>10.612252818057</v>
+        <v>117.469589</v>
       </c>
       <c r="I4">
-        <v>0.3515505603108813</v>
+        <v>0.665717606307092</v>
       </c>
       <c r="J4">
-        <v>0.3515505603108813</v>
+        <v>0.665717606307092</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.61104841314619</v>
+        <v>4.681018666666667</v>
       </c>
       <c r="N4">
-        <v>4.61104841314619</v>
+        <v>14.043056</v>
       </c>
       <c r="O4">
-        <v>0.1527495321732201</v>
+        <v>0.07958408389048205</v>
       </c>
       <c r="P4">
-        <v>0.1527495321732201</v>
+        <v>0.07958408389048205</v>
       </c>
       <c r="Q4">
-        <v>48.93361151660792</v>
+        <v>183.2924462915538</v>
       </c>
       <c r="R4">
-        <v>48.93361151660792</v>
+        <v>1649.632016623984</v>
       </c>
       <c r="S4">
-        <v>0.05369918362272051</v>
+        <v>0.05298052582771451</v>
       </c>
       <c r="T4">
-        <v>0.05369918362272051</v>
+        <v>0.05298052582771451</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,52 +711,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.9636875441025</v>
+        <v>14.98097966666666</v>
       </c>
       <c r="H5">
-        <v>14.9636875441025</v>
+        <v>44.942939</v>
       </c>
       <c r="I5">
-        <v>0.4956999075158987</v>
+        <v>0.254698309802426</v>
       </c>
       <c r="J5">
-        <v>0.4956999075158987</v>
+        <v>0.254698309802426</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.612252818057</v>
+        <v>39.15652966666666</v>
       </c>
       <c r="N5">
-        <v>10.612252818057</v>
+        <v>117.469589</v>
       </c>
       <c r="O5">
-        <v>0.3515505603108813</v>
+        <v>0.665717606307092</v>
       </c>
       <c r="P5">
-        <v>0.3515505603108813</v>
+        <v>0.665717606307092</v>
       </c>
       <c r="Q5">
-        <v>158.7984353084262</v>
+        <v>586.6031747535633</v>
       </c>
       <c r="R5">
-        <v>158.7984353084262</v>
+        <v>5279.42857278207</v>
       </c>
       <c r="S5">
-        <v>0.1742635802332662</v>
+        <v>0.1695571491321332</v>
       </c>
       <c r="T5">
-        <v>0.1742635802332662</v>
+        <v>0.1695571491321332</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,52 +773,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.9636875441025</v>
+        <v>14.98097966666666</v>
       </c>
       <c r="H6">
-        <v>14.9636875441025</v>
+        <v>44.942939</v>
       </c>
       <c r="I6">
-        <v>0.4956999075158987</v>
+        <v>0.254698309802426</v>
       </c>
       <c r="J6">
-        <v>0.4956999075158987</v>
+        <v>0.254698309802426</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.9636875441025</v>
+        <v>14.98097966666666</v>
       </c>
       <c r="N6">
-        <v>14.9636875441025</v>
+        <v>44.942939</v>
       </c>
       <c r="O6">
-        <v>0.4956999075158987</v>
+        <v>0.254698309802426</v>
       </c>
       <c r="P6">
-        <v>0.4956999075158987</v>
+        <v>0.254698309802426</v>
       </c>
       <c r="Q6">
-        <v>223.9119449175283</v>
+        <v>224.4297517730801</v>
       </c>
       <c r="R6">
-        <v>223.9119449175283</v>
+        <v>2019.867765957721</v>
       </c>
       <c r="S6">
-        <v>0.2457183983112705</v>
+        <v>0.06487122901621256</v>
       </c>
       <c r="T6">
-        <v>0.2457183983112705</v>
+        <v>0.06487122901621256</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,52 +835,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.9636875441025</v>
+        <v>14.98097966666666</v>
       </c>
       <c r="H7">
-        <v>14.9636875441025</v>
+        <v>44.942939</v>
       </c>
       <c r="I7">
-        <v>0.4956999075158987</v>
+        <v>0.254698309802426</v>
       </c>
       <c r="J7">
-        <v>0.4956999075158987</v>
+        <v>0.254698309802426</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.61104841314619</v>
+        <v>4.681018666666667</v>
       </c>
       <c r="N7">
-        <v>4.61104841314619</v>
+        <v>14.043056</v>
       </c>
       <c r="O7">
-        <v>0.1527495321732201</v>
+        <v>0.07958408389048205</v>
       </c>
       <c r="P7">
-        <v>0.1527495321732201</v>
+        <v>0.07958408389048205</v>
       </c>
       <c r="Q7">
-        <v>68.99828770504925</v>
+        <v>70.12624546462044</v>
       </c>
       <c r="R7">
-        <v>68.99828770504925</v>
+        <v>631.1362091815839</v>
       </c>
       <c r="S7">
-        <v>0.07571792897136199</v>
+        <v>0.02026993165408025</v>
       </c>
       <c r="T7">
-        <v>0.07571792897136199</v>
+        <v>0.02026993165408025</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,52 +897,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.61104841314619</v>
+        <v>4.681018666666667</v>
       </c>
       <c r="H8">
-        <v>4.61104841314619</v>
+        <v>14.043056</v>
       </c>
       <c r="I8">
-        <v>0.1527495321732201</v>
+        <v>0.07958408389048205</v>
       </c>
       <c r="J8">
-        <v>0.1527495321732201</v>
+        <v>0.07958408389048205</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.612252818057</v>
+        <v>39.15652966666666</v>
       </c>
       <c r="N8">
-        <v>10.612252818057</v>
+        <v>117.469589</v>
       </c>
       <c r="O8">
-        <v>0.3515505603108813</v>
+        <v>0.665717606307092</v>
       </c>
       <c r="P8">
-        <v>0.3515505603108813</v>
+        <v>0.665717606307092</v>
       </c>
       <c r="Q8">
-        <v>48.93361151660792</v>
+        <v>183.2924462915538</v>
       </c>
       <c r="R8">
-        <v>48.93361151660792</v>
+        <v>1649.632016623984</v>
       </c>
       <c r="S8">
-        <v>0.05369918362272051</v>
+        <v>0.05298052582771451</v>
       </c>
       <c r="T8">
-        <v>0.05369918362272051</v>
+        <v>0.05298052582771451</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,52 +959,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.61104841314619</v>
+        <v>4.681018666666667</v>
       </c>
       <c r="H9">
-        <v>4.61104841314619</v>
+        <v>14.043056</v>
       </c>
       <c r="I9">
-        <v>0.1527495321732201</v>
+        <v>0.07958408389048205</v>
       </c>
       <c r="J9">
-        <v>0.1527495321732201</v>
+        <v>0.07958408389048205</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.9636875441025</v>
+        <v>14.98097966666666</v>
       </c>
       <c r="N9">
-        <v>14.9636875441025</v>
+        <v>44.942939</v>
       </c>
       <c r="O9">
-        <v>0.4956999075158987</v>
+        <v>0.254698309802426</v>
       </c>
       <c r="P9">
-        <v>0.4956999075158987</v>
+        <v>0.254698309802426</v>
       </c>
       <c r="Q9">
-        <v>68.99828770504925</v>
+        <v>70.12624546462044</v>
       </c>
       <c r="R9">
-        <v>68.99828770504925</v>
+        <v>631.1362091815839</v>
       </c>
       <c r="S9">
-        <v>0.07571792897136199</v>
+        <v>0.02026993165408025</v>
       </c>
       <c r="T9">
-        <v>0.07571792897136199</v>
+        <v>0.02026993165408025</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,52 +1021,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.61104841314619</v>
+        <v>4.681018666666667</v>
       </c>
       <c r="H10">
-        <v>4.61104841314619</v>
+        <v>14.043056</v>
       </c>
       <c r="I10">
-        <v>0.1527495321732201</v>
+        <v>0.07958408389048205</v>
       </c>
       <c r="J10">
-        <v>0.1527495321732201</v>
+        <v>0.07958408389048205</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.61104841314619</v>
+        <v>4.681018666666667</v>
       </c>
       <c r="N10">
-        <v>4.61104841314619</v>
+        <v>14.043056</v>
       </c>
       <c r="O10">
-        <v>0.1527495321732201</v>
+        <v>0.07958408389048205</v>
       </c>
       <c r="P10">
-        <v>0.1527495321732201</v>
+        <v>0.07958408389048205</v>
       </c>
       <c r="Q10">
-        <v>21.261767468378</v>
+        <v>21.91193575768178</v>
       </c>
       <c r="R10">
-        <v>21.261767468378</v>
+        <v>197.207421819136</v>
       </c>
       <c r="S10">
-        <v>0.0233324195791376</v>
+        <v>0.006333626408687285</v>
       </c>
       <c r="T10">
-        <v>0.0233324195791376</v>
+        <v>0.006333626408687285</v>
       </c>
     </row>
   </sheetData>
